--- a/book/excel_example.xlsx
+++ b/book/excel_example.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>numero_factura</t>
   </si>
@@ -32,7 +33,13 @@
     <t>tipo_factura</t>
   </si>
   <si>
-    <t>Excluida</t>
+    <t>Excluido</t>
+  </si>
+  <si>
+    <t>Exentas</t>
+  </si>
+  <si>
+    <t>Reintegros</t>
   </si>
 </sst>
 </file>
@@ -350,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,7 +385,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>